--- a/templates/sample_vessel.xlsx
+++ b/templates/sample_vessel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikeo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E804E39-9F1F-44E4-87B9-8179B3E6658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D75724F-4731-46E9-A6B5-789381D85518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4BFC729B-86AC-4D94-8D68-6849FEF728D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BFC729B-86AC-4D94-8D68-6849FEF728D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bulk Vessel" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Name of Vessel</t>
   </si>
@@ -77,9 +77,6 @@
     <t>EEXI</t>
   </si>
   <si>
-    <t>Tanker</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -108,6 +105,12 @@
   </si>
   <si>
     <t>Bulk Carrier</t>
+  </si>
+  <si>
+    <t>Chemical Tanker</t>
+  </si>
+  <si>
+    <t>Oil Tanker</t>
   </si>
 </sst>
 </file>
@@ -483,29 +486,29 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -537,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
@@ -546,45 +549,45 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>7477671</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>8000</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>123456</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>230</v>
       </c>
       <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
       </c>
       <c r="M2">
         <v>7000</v>
@@ -604,9 +607,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E01B7126-DB11-4317-A0C0-C88ADA7E091F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45C1AA50-0523-40E0-AA85-6799F0B0C8FD}">
           <x14:formula1>
-            <xm:f>Sheet1!$A$2:$A$3</xm:f>
+            <xm:f>Sheet1!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -618,30 +621,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3C545E-B369-4C0A-A54C-768E2F843CD6}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
